--- a/figures/abra_DFG_publikacios_tipusok.xlsx
+++ b/figures/abra_DFG_publikacios_tipusok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janostapolcai/Desktop/janos/fejlesztes/coreA/corePaperList/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{954EC8C1-A418-184D-BE11-CA821BEA26AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975E2AE5-84D9-2846-82EE-B5BBE67BAE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="3060" windowWidth="27780" windowHeight="17860" xr2:uid="{0DE95EBF-9567-E841-85AD-CE807AB514BB}"/>
+    <workbookView xWindow="-11900" yWindow="-20660" windowWidth="27780" windowHeight="17860" xr2:uid="{0DE95EBF-9567-E841-85AD-CE807AB514BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Könyv</t>
   </si>
@@ -213,14 +213,20 @@
     <t>Mezőgazdaság, erdészet, állatorvoslás</t>
   </si>
   <si>
-    <t>Építőmérnöki tudományok</t>
+    <t>Építőmérnöki és építészeti tudományok</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Anyagmérnökség</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,6 +360,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="33">
@@ -697,8 +708,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -778,8 +790,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.9438909778780478E-2"/>
-          <c:y val="5.2503568851727918E-2"/>
+          <c:x val="6.9438907999831323E-2"/>
+          <c:y val="6.5038094707009539E-2"/>
           <c:w val="0.80265754967036207"/>
           <c:h val="0.79864424835582315"/>
         </c:manualLayout>
@@ -837,7 +849,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D72FE1E-259D-DC4B-8899-F22A16871A05}" type="CELLRANGE">
+                    <a:fld id="{811D3CB9-5C67-3E45-9A92-889640083CA6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -875,7 +887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5807B3E-E728-4242-AECA-19EA93DFB4D1}" type="CELLRANGE">
+                    <a:fld id="{33583022-3AA6-7A40-B1FB-43A08B6F9790}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -914,6 +926,44 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{0F3F4DF5-A7BD-0643-8D8F-612C35FEE97A}" type="CELLRANGE">
+                      <a:rPr lang="hu-HU"/>
+                      <a:pPr/>
+                      <a:t>[CELLATARTOMÁNY]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="hu-HU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4497-FF42-A57E-135CFD58FC52}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2357056651243284E-2"/>
+                  <c:y val="3.3488370866567592E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{41482F3C-0804-EC40-A29A-7F5D0B152185}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -934,16 +984,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4497-FF42-A57E-135CFD58FC52}"/>
+                  <c16:uniqueId val="{00000004-4497-FF42-A57E-135CFD58FC52}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.2357056651243284E-2"/>
-                  <c:y val="3.3488370866567592E-2"/>
+                  <c:x val="4.088176275293713E-3"/>
+                  <c:y val="-1.8801843863764111E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -951,7 +1001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A96C3B78-EA11-D84B-B73D-79D83074185F}" type="CELLRANGE">
+                    <a:fld id="{4511F147-7BD1-BA44-B1B9-7DC12433FF46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -972,18 +1022,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-4497-FF42-A57E-135CFD58FC52}"/>
+                  <c16:uniqueId val="{00000005-4497-FF42-A57E-135CFD58FC52}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{166F7E3D-DB8A-C54F-8E92-05A884C47D1F}" type="CELLRANGE">
+                    <a:fld id="{3BC97516-CD7B-054B-A957-657DD9BCFD6B}" type="CELLRANGE">
                       <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1005,39 +1055,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-4497-FF42-A57E-135CFD58FC52}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F53B12B6-E8C2-4F44-85FA-456986DA4BE1}" type="CELLRANGE">
-                      <a:rPr lang="hu-HU"/>
-                      <a:pPr/>
-                      <a:t>[CELLATARTOMÁNY]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="hu-HU"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-4497-FF42-A57E-135CFD58FC52}"/>
                 </c:ext>
               </c:extLst>
@@ -1055,7 +1072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFF68F86-763C-B347-8CCB-A7265A92C39F}" type="CELLRANGE">
+                    <a:fld id="{016A582D-91A0-BA4E-A72F-59BD3496B705}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1093,7 +1110,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD6C6B4D-168C-E74B-9E3E-E9E3496F8A78}" type="CELLRANGE">
+                    <a:fld id="{3EF2A411-7F85-5D4B-B320-136662D1BFD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1131,7 +1148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E35D9D5-D337-594C-A8AE-921045375ACF}" type="CELLRANGE">
+                    <a:fld id="{37E50F6D-F537-FD40-9D3D-82108D0102A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1169,7 +1186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E0F37A8-B390-8040-8FA3-C0E697BC14F2}" type="CELLRANGE">
+                    <a:fld id="{A72CBF36-2C6C-2B4D-B68E-5B7A968E2FD1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1213,7 +1230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B88F9375-0FC4-3C42-A367-930D78324414}" type="CELLRANGE">
+                    <a:fld id="{CB1D8BE8-33B3-A34D-93FB-33B652092264}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1251,7 +1268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FDC7150-9E2F-5A4D-AD0F-281C0B5CCD90}" type="CELLRANGE">
+                    <a:fld id="{17DB666A-5DF7-004F-A83D-8EFDBF4A1B41}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1289,7 +1306,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F9F8160-142A-E043-9D4E-C1F041BD72EA}" type="CELLRANGE">
+                    <a:fld id="{DE360A4F-C820-AD43-9673-9930581A4C87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1327,7 +1344,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9E44BAB-871B-3F4E-B854-B7051F5B8F60}" type="CELLRANGE">
+                    <a:fld id="{95D75F4C-3618-C342-BF8B-50CB98A5AB35}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1365,7 +1382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67FB5BD9-321F-6D42-8F89-52AA997166BA}" type="CELLRANGE">
+                    <a:fld id="{5915FB1F-8A1F-2F48-8A08-324597B943C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1403,7 +1420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D3985E8-D9F2-384C-A337-DAB16F5BE84B}" type="CELLRANGE">
+                    <a:fld id="{4199C7F8-B8F4-704B-99DD-9CCCBFCADA2F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1441,7 +1458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CB3AA5F-E32D-B046-9081-D4D50968BA45}" type="CELLRANGE">
+                    <a:fld id="{65DC1C2C-AF12-974C-B987-2CB78FA36ED6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1479,7 +1496,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA879551-0EA3-7A42-99E6-9C61CFC171D2}" type="CELLRANGE">
+                    <a:fld id="{E16056E5-DF54-5A4F-99AF-4B7062CD39FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1517,7 +1534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8371D9D-9F58-1149-A68A-D556735AC8EC}" type="CELLRANGE">
+                    <a:fld id="{95FB362B-5130-E14F-A947-2D7A3186EC1E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1568,7 +1585,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{40E70C42-758B-6D49-8586-57DF294A1D16}" type="CELLRANGE">
+                    <a:fld id="{C00ABF01-7969-E643-A3A1-AAC6DD472D8F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1050"/>
@@ -1641,7 +1658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34869E8C-4FFA-D147-8192-33AEA66BA814}" type="CELLRANGE">
+                    <a:fld id="{1EC76545-9EC2-6849-B50D-B0A734AC6663}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1679,7 +1696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7755675E-769B-8941-A2A0-503E42867E6A}" type="CELLRANGE">
+                    <a:fld id="{DC73F9C9-61FF-9B42-BABD-BB491D13C32D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1717,7 +1734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5E891D2-D7DC-FF46-95C1-DB73DA42F9CA}" type="CELLRANGE">
+                    <a:fld id="{F1566BFA-96C2-AD4B-8EB3-878FDED7AB3C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1755,7 +1772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98ADA5DB-DEF4-E74D-9F5A-92365288A34F}" type="CELLRANGE">
+                    <a:fld id="{D67CAE8C-F21D-CE47-A91C-CBA5D3849467}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1793,7 +1810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D56A846F-BAA5-C64A-9482-45AD90DEE607}" type="CELLRANGE">
+                    <a:fld id="{A02B17C8-73C6-7A4C-BDA5-3857816C73C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1831,7 +1848,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08ED6522-E160-CC41-B692-B405F290DC4E}" type="CELLRANGE">
+                    <a:fld id="{A355EA6B-068F-7648-B90E-D9A37F1B8F89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1869,7 +1886,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D3B3A1E-4D2E-1644-8931-6C07B8BF6AC5}" type="CELLRANGE">
+                    <a:fld id="{E74DE461-7A7E-584A-96EB-ACA7CEC22300}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1907,7 +1924,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC3A1DB5-7358-2C48-B3EE-975BBC6C5AAC}" type="CELLRANGE">
+                    <a:fld id="{AD7E4781-FD2D-B741-B73F-90715057AA6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1945,7 +1962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B201B85-A6DF-1140-AD97-62A9DB00B5A1}" type="CELLRANGE">
+                    <a:fld id="{E847D28F-5C46-E841-BE33-A5821718970B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1983,7 +2000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52B04C17-5BFF-A946-A7B1-CFFBCB93D459}" type="CELLRANGE">
+                    <a:fld id="{FB23639E-D86D-8544-A7F3-5EBBD67F6180}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2021,7 +2038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E257CD8D-68FA-2C43-8186-346ABEF848EB}" type="CELLRANGE">
+                    <a:fld id="{7A44F46F-3306-E64D-8767-A0F42DF00EAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2059,7 +2076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56EF37B9-439F-754A-A31F-F03DF505A6A9}" type="CELLRANGE">
+                    <a:fld id="{ADC4557D-EC49-6C43-AC7F-F3BD4BF68890}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2097,7 +2114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24F40248-7435-3349-B58A-720FDEC32A9E}" type="CELLRANGE">
+                    <a:fld id="{D32A2E3C-3A69-854C-A318-8DF9CD79EC6E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2135,7 +2152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A070338F-C2AC-0D44-B975-4FB6F11B5223}" type="CELLRANGE">
+                    <a:fld id="{58E3471A-9215-1440-A318-9DE1E6863BA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2173,7 +2190,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{561491A3-DA8F-DA49-A083-9D752C6F6D4B}" type="CELLRANGE">
+                    <a:fld id="{C9631023-E543-2A4D-9489-7FFADBB9A98C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2211,7 +2228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7583EE38-7EFC-914C-B4BF-44E637BA9781}" type="CELLRANGE">
+                    <a:fld id="{51F4AC37-1537-DA4D-A776-9419C0B35057}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2249,7 +2266,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2582A97A-D024-254F-B746-9F4B81EE3280}" type="CELLRANGE">
+                    <a:fld id="{FB1B50AC-C158-B141-8A36-129975A541D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2293,7 +2310,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5B508C9-19CF-1E47-B43A-1891891AA36D}" type="CELLRANGE">
+                    <a:fld id="{CD447478-5CDB-674F-A015-D4D6B9613FDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2331,7 +2348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{478B245C-1817-F94E-B4C6-789611D5EAD2}" type="CELLRANGE">
+                    <a:fld id="{8B73C817-7A0A-604C-959C-B989E6E5D217}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2369,7 +2386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9013A81-0050-A54F-A7B7-C47566BA3A01}" type="CELLRANGE">
+                    <a:fld id="{6AEBC938-03A0-5F47-B7E6-C0C8761162CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2407,7 +2424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D5A11BA-FBD6-9949-990A-A82B514B6062}" type="CELLRANGE">
+                    <a:fld id="{617757CE-DBC7-3A4F-9291-9C2F5AB5D6C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2445,7 +2462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B06EC76-9842-EC4E-B85B-8591B01C31FA}" type="CELLRANGE">
+                    <a:fld id="{A497D561-ABF2-4447-A46E-2E0A9B5C471C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2483,7 +2500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1D47FF5-408B-6847-AC43-93D000CD1784}" type="CELLRANGE">
+                    <a:fld id="{77C09101-EDFD-2D44-B91E-7D84D245099D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2521,7 +2538,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A9299AF-0D99-B947-96DC-38416403363A}" type="CELLRANGE">
+                    <a:fld id="{760AEA9F-595F-AB4B-8EB6-D803087E0126}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2559,7 +2576,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88CAB70F-71E6-184E-8587-9DFF685C014F}" type="CELLRANGE">
+                    <a:fld id="{A0018842-70DF-A04F-8215-1D1CC3A3709C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2597,7 +2614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05C90EC2-FC92-1743-9B6D-6B707AF0B1B6}" type="CELLRANGE">
+                    <a:fld id="{9006940E-7A26-A24C-8404-20DD025E5C65}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2648,7 +2665,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{B04076B9-8C8C-864F-BCF7-4835F4D5E934}" type="CELLRANGE">
+                    <a:fld id="{0A97ADB6-0E10-A748-BAAF-CB0A396FD10D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2708,8 +2725,8 @@
               <c:idx val="47"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17065343549821504"/>
-                  <c:y val="5.2325579479011924E-2"/>
+                  <c:x val="-0.16929073575262521"/>
+                  <c:y val="6.69492042608959E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2717,7 +2734,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:fld id="{5C05A001-2670-B24C-A274-8B6E0D1DB00B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLATARTOMÁNY]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="hu-HU"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2729,6 +2751,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2938,6 +2961,9 @@
                 <c:pt idx="46">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3087,6 +3113,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3225,10 +3254,10 @@
                     <c:v>Hőtechnika és áramlástechnika</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>Anyagtudomány</c:v>
+                    <c:v>Anyagmérnökség</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>Építőmérnöki tudományok</c:v>
+                    <c:v>Anyagtudomány</c:v>
                   </c:pt>
                   <c:pt idx="44">
                     <c:v>Rendszermérnökség</c:v>
@@ -3238,6 +3267,9 @@
                   </c:pt>
                   <c:pt idx="46">
                     <c:v>Informatika</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Építőmérnöki és építészeti tudományok</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4131,7 +4163,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302479" cy="6067778"/>
+    <xdr:ext cx="9319559" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4477,10 +4509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD1BCC6-3E5B-B248-A35F-4192B03BF9D6}">
-  <dimension ref="B1:O48"/>
+  <dimension ref="B1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6136,7 +6169,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -6174,7 +6207,7 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -6325,6 +6358,50 @@
       </c>
       <c r="N48">
         <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="G50" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
